--- a/rtl/spec_2g.xlsx
+++ b/rtl/spec_2g.xlsx
@@ -1074,8 +1074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>22</v>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
@@ -2306,7 +2306,7 @@
         <v>103</v>
       </c>
       <c r="B74" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="B120" s="2">
-        <v>-96</v>
+        <v>-97</v>
       </c>
       <c r="C120" s="2">
         <v>-94</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="B124" s="2">
-        <v>-86</v>
+        <v>-91</v>
       </c>
       <c r="C124" s="3">
         <v>-86</v>
@@ -2919,7 +2919,7 @@
         <v>-74</v>
       </c>
       <c r="I124" s="2">
-        <v>-73</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="B128" s="2">
-        <v>-86</v>
+        <v>-88</v>
       </c>
       <c r="C128" s="2">
         <v>-86</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="2">
-        <v>-83</v>
+        <v>-85</v>
       </c>
       <c r="C134" s="2">
         <v>-83</v>
@@ -3137,7 +3137,7 @@
         <v>-69</v>
       </c>
       <c r="I134" s="2">
-        <v>-68</v>
+        <v>-69</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
